--- a/New folder/account.xlsx
+++ b/New folder/account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>skype</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I18"/>
+  <dimension ref="C2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,150 +461,163 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3" display="g59rCabx-qaFc@T"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D17" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3" display="g59rCabx-qaFc@T"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId5"/>
+    <hyperlink ref="D18" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New folder/account.xlsx
+++ b/New folder/account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>skype</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>jyyblue</t>
-  </si>
-  <si>
-    <t>Sc1221-3-4</t>
   </si>
   <si>
     <t>guru</t>
@@ -440,7 +437,7 @@
   <dimension ref="C2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
@@ -502,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
@@ -519,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
@@ -547,45 +544,45 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
         <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -593,19 +590,19 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/New folder/account.xlsx
+++ b/New folder/account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>skype</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>n$.tCaL#Gh9L3QdU9G</t>
+  </si>
+  <si>
+    <t>gitlab</t>
+  </si>
+  <si>
+    <t>dolsi0924</t>
   </si>
 </sst>
 </file>
@@ -547,6 +553,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
